--- a/biology/Neurosciences/Neurotransmetteur/Neurotransmetteur.xlsx
+++ b/biology/Neurosciences/Neurotransmetteur/Neurotransmetteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les neurotransmetteurs, ou neuromédiateurs, sont des composés chimiques libérés par les neurones (et parfois par les cellules gliales) agissant sur d'autres neurones, appelés neurones postsynaptiques, ou, plus rarement, sur d'autres types de cellules (comme les cellules musculaires et les cellules gliales comme les astrocytes).
 Les neurotransmetteurs sont stockés au niveau de l'élément présynaptique dans des vésicules. Le contenu de ces vésicules est libéré (de 1 000 à 2 000 molécules en moyenne) dans l'espace synaptique au moment de l'arrivée d'un potentiel d'action. Là, les molécules diffusent vers les récepteurs transmembranaires localisés dans la membrane du neurone post-synaptique. Selon la nature du neurotransmetteur, l'élément postsynaptique aura comme réponse un potentiel postsynaptique inhibiteur (glycine, GABA) ou excitateur (glutamate, acétylcholine), s'opposant à, ou favorisant respectivement la naissance d'un potentiel d'action dans le neurone postsynaptique.
@@ -512,7 +524,9 @@
           <t>Critères</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En règle générale, un neuromédiateur désigne une molécule qui possède les propriétés suivantes :
 être présente et stockée dans des vésicules au niveau des terminaisons présynaptiques ;
@@ -547,7 +561,9 @@
           <t>Catégories de neurotransmetteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les neurotransmetteurs sont divisés en plusieurs catégories :
 les monoamines : sont synthétisées à partir d'un acide aminé :
@@ -585,7 +601,9 @@
           <t>Neuromédiateur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un neuromédiateur est libéré dans l'environnement neuronal et crée une « ambiance » chimique influant sur le fonctionnement du neurone.
 Le monoxyde d'azote est un neuromédiateur unique en son genre puisqu'il s'agit d'un gaz soluble, toxique lorsqu'il est inhalé en excès. Il a la particularité de pouvoir parcourir le neurone à la fois de façon antérograde mais aussi rétrograde (de post-synaptique à pré-synaptique). Au niveau synaptique, il est produit par l'activation de la NO synthase (NOS).
@@ -618,7 +636,9 @@
           <t>Hormones</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Beaucoup de substances utilisées comme les hormones (insuline, glucagon, etc.) dans l'organisme deviennent des neurotransmetteurs dans le système nerveux central. Inversement, les neurohormones sont sécrétées comme les neurotransmetteurs et agissent comme une hormone.
 </t>
@@ -649,10 +669,12 @@
           <t>Activation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les neuromédiateurs sont activés par les besoins de l'organisme et sont responsables des émotions ressenties : joie, de peine, de colère ou de peur, ou  le stress.
-À l’écoute d’un air, d’une chanson ou de la musique en général, notre cerveau réagit et peut nous provoquer une sensation de satisfaction ou de plénitude[1].
+À l’écoute d’un air, d’une chanson ou de la musique en général, notre cerveau réagit et peut nous provoquer une sensation de satisfaction ou de plénitude.
 </t>
         </is>
       </c>
